--- a/AppBD/bin/Debug/DatosTransfe.xlsx
+++ b/AppBD/bin/Debug/DatosTransfe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\udistri\trabajo hermana\AppBD\AppBD\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA45F48-20DC-4B4E-890D-4BC9A4272A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D62838-CA32-4773-A2E3-2FAE8E57E418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="2160" windowWidth="17475" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>NumeroContrato</t>
   </si>
@@ -66,59 +66,245 @@
     <t>nombrecontratista</t>
   </si>
   <si>
-    <t>1kj</t>
-  </si>
-  <si>
-    <t>casa</t>
-  </si>
-  <si>
-    <t>23-23</t>
-  </si>
-  <si>
-    <t>nsed1</t>
-  </si>
-  <si>
-    <t>nofol1</t>
-  </si>
-  <si>
-    <t>sfsfsdf1</t>
-  </si>
-  <si>
-    <t>jose</t>
-  </si>
-  <si>
-    <t>contratista1</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>kj</t>
-  </si>
-  <si>
-    <t>lkj</t>
-  </si>
-  <si>
-    <t>lk</t>
-  </si>
-  <si>
-    <t>jlk</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>dfgdg</t>
-  </si>
-  <si>
-    <t>dfdfgdgf</t>
+    <t>64-20</t>
+  </si>
+  <si>
+    <t>Dirección de Talento Humano</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1327966</t>
+  </si>
+  <si>
+    <t>PRESTAR SERVICIOS PROFESIONALES A LA DIRECCION DE TALENTO HUMANO DE LA SED, EN EL DESARROLLO, EJECUCION Y CONTROL DE LOS TEMAS A CARGOS DE ESTA DIRECCION Y SUS AREAS ADSCRITAS.</t>
+  </si>
+  <si>
+    <t>ESTEBAN FELIPE DIAZ BORDA</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1328106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESTAR SERVICIOS PROFESIONALES  PARA EVALUAR A  LAS DEPENDENCIAS DEL NIVEL CENTRAL, LOCAL E INSTITUCIONAL ,  BASADOS EN RIESGOS A PARTIR DEL MODELO INTEGRADO DE PLANEACION Y GESTION Y DEMÁS ACTIVIDADES RELACIONADAS CON EL OBJETO CONTRACTUAL,  QUE SE DESARROLLAN DESDE LA OFICINA DE CONTROL INTERNO DE LA SECRETARIA DE EDUCACION DEL DISTRITO. </t>
+  </si>
+  <si>
+    <t>Jefe de Control Interno</t>
+  </si>
+  <si>
+    <t>MARIA HELENA GONZALEZ GARAVITO</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1318865</t>
+  </si>
+  <si>
+    <t>APOYAR COMO PROFESIONAL A LA OFICINA DE NÓMINA, MEDIANTE EL DESARROLLO DE TAREAS QUE PERMITAN EFECTUAR Y GARANTIZAR DE MANERA OPORTUNA, EL PAGO DE LOS SALARIOS Y DEMÁS PRESTACIONES SOCIALES DE LOS DOCENTES DIRECTIVOS, DOCENTES Y ADMINISTRATIVOS DE LA SED</t>
+  </si>
+  <si>
+    <t>Oficina de Nómina</t>
+  </si>
+  <si>
+    <t>IVONNE ASTRID TELLEZ ZARATE</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1308348</t>
+  </si>
+  <si>
+    <t>65-20</t>
+  </si>
+  <si>
+    <t>RONALD DEIVYS REYES BARRERA</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1314865</t>
+  </si>
+  <si>
+    <t>APOYAR COMO PROFESIONAL ESPECIALIZADO A LA OFICINA DE NÓMINA, MEDIANTE EL DESARROLLO DE TAREAS QUE PERMITAN EFECTUAR Y GARANTIZAR DE MANERA OPORTUNA, EL PAGO DE LOS SALARIOS Y DEMÁS PRESTACIONES SOCIALES DE LOS DOCENTES DIRECTIVOS, DOCENTES Y ADMINISTRATIVOS DE LA SED</t>
+  </si>
+  <si>
+    <t>LILIA YANETH JAIME ARIAS</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1333006</t>
+  </si>
+  <si>
+    <t>APOYAR PROFESIONALMENTE LA GESTIÓN DE LA OFICINA DE ESCALAFÓN DOCENTE, EN LA PROYECCIÓN DE ACTOS ADMINISTRATIVOS RELACIONADOS CON INSCRIPCIÓN Y ASCENSO EN EL ESCALAFÓN NACIONAL DOCENTE E INSCRIPCIÓN, ACTUALIZACIÓN, REUBICACIONES, ASCENSOS Y NEGACIONES EN EL ESCALAFÓN DOCENTE OFICIAL.</t>
+  </si>
+  <si>
+    <t>Oficina de Escalafón Docente</t>
+  </si>
+  <si>
+    <t>OSCAR EMILSON SUAREZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1332919</t>
+  </si>
+  <si>
+    <t>PRESTAR SERVICIOS PROFESIONALES A LA OFICINA DE ESCALAFÓN DOCENTE, PARA LA REALIZACIÓN DE LOS TRÁMITES DE RECONOCIMIENTO LEGAL DEL ESCALAFÓN A LOS DOCENTES Y DIRECTIVOS DOCENTES DE LOS ESTABLECIMIENTOS EDUCATIVOS OFICIALES Y PRIVADOS.</t>
+  </si>
+  <si>
+    <t>SANTIAGO VILLAREAL LLANO</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1331652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRES RICARDO GOMEZ BOHORQUEZ </t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1307389</t>
+  </si>
+  <si>
+    <t>ANDREA PAOLA FIGUEROA MALDONADO</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1318475</t>
+  </si>
+  <si>
+    <t>GLORIA JUDITH BARRAGAN DUARTE</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1327960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESTAR SERVICIOS PROFESIONALES  EN LA COORDINACIÓN Y  GESTIÓN DE  LOS DISTINTOS  PROYECTOS TECNOLÓGICOS DE LA SED QUE LE SEAN ASIGNADOS POR LA OAREDP. </t>
+  </si>
+  <si>
+    <t>REDP</t>
+  </si>
+  <si>
+    <t>LIRA JAZMIN PINEDA MORENO</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1328333</t>
+  </si>
+  <si>
+    <t>66-20</t>
+  </si>
+  <si>
+    <t>PRESTAR SERVICIOS PROFESIONALES COMO LIDER TECNICO EN LA IMPLEMENTACIÓN DE LOS SISTEMAS DE INFORMACIÓN DE LA SED QUE LE SEAN ASIGNADOS POR LA OAREDP</t>
+  </si>
+  <si>
+    <t>SAUL ENRIQUE CAMARGO GUEVARA</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1330619</t>
+  </si>
+  <si>
+    <t>PRESTAR LOS SERVICIOS PROFESIONALES EN EL MANTENIMIENTO Y SOPORTE DE LOS SISTEMAS DE INFORMACIÓN DE LA SED QUE LE SEAN ASIGNADOS POR LA OAREDP.</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS ARIAS POVEDA</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1328318</t>
+  </si>
+  <si>
+    <t>PRESTAR SERVICIOS PROFESIONALES PARA COORDINAR LA GESTIÓN DEL EQUIPO DE DESARROLLO DE LA OAREDP DE LA SED EN EL MARCO DEL CICLO DE VIDA DE LOS SISTEMAS Y LAS BUENAS PRÁCTICAS DE DESARROLLO</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL CUELLAR IZQUIERDO</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1328336</t>
+  </si>
+  <si>
+    <t>PRESTAR SERVICIOS PROFESIONALES EN  LOS PROCESOS DE DESARROLLO DE SOFTWARE DE LOS SISTEMAS DE INFORMACIÓN DE LA SED,  EN SUS ETAPAS DE DISEÑO, DESARROLLO, PRUEBAS,  IMPLEMENTACIÓN Y OPTIMIZACIÓN.</t>
+  </si>
+  <si>
+    <t>GERSON CESPEDES GOMEZ</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1327933</t>
+  </si>
+  <si>
+    <t>PRESTAR  SERVICIOS PROFESIONALES EN EL SEGUIMIENTO Y GESTIÓN DE LOS PROCESOS ADMINISTRATIVOS, FINANCIEROS Y CONTRACTUALES QUE HACEN PARTE DE LA EJECUCIÓN DEL PROYECTO DE INVERSIÓN Y DEL RUBRO DE FUNCIONAMIENTO, A CARGO DE LA  OFICINA ADMINISTRATIVA DE REDP</t>
+  </si>
+  <si>
+    <t>YESENIA  CHIA ESTUPIÑAN</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1330890</t>
+  </si>
+  <si>
+    <t>PRESTAR SERVICIOS PROFESIONALES EN TODAS LAS ETAPAS DEL CICLO DE VIDA DE LOS SISTEMAS DE INFORMACIÓN DE LA SED QUE LE SEAN ASIGNADOS POR LA OAREDP.</t>
+  </si>
+  <si>
+    <t>MARTHA EUGENIA RUBIO PERDOMO</t>
+  </si>
+  <si>
+    <t>CO1.PCCNTR.1328389</t>
+  </si>
+  <si>
+    <t>PRESTAR APOYO PROFESIONAL EN LA COORDINACIÓN DE LA PRESTACIÓN DE LOS SERVICIOS DE ADMINISTRACIÓN, SOPORTE, MANTENIMIENTO Y OPERACIÓN DE LA INFRAESTRUCTURA TECNOLÓGICA DE LA SED ALOJADA EN EL DATA CENTER, ASÍ COMO EN LAS ACTIVIDADES ASOCIADAS CON LA PLANEACIÓN E IMPLEMENTACIÓN DE MEJORAS SOBRE DICHA INFRAESTRUCTURA.</t>
+  </si>
+  <si>
+    <t>JOSE ARMANDO GARZON BONILLA</t>
+  </si>
+  <si>
+    <t>1327966-2020</t>
+  </si>
+  <si>
+    <t>1328106-2020</t>
+  </si>
+  <si>
+    <t>1318865-2020</t>
+  </si>
+  <si>
+    <t>1308348-2020</t>
+  </si>
+  <si>
+    <t>1314865-2020</t>
+  </si>
+  <si>
+    <t>1333006-2020</t>
+  </si>
+  <si>
+    <t>1332919-2020</t>
+  </si>
+  <si>
+    <t>1331652-2020</t>
+  </si>
+  <si>
+    <t>1307389-2020</t>
+  </si>
+  <si>
+    <t>1318475-2020</t>
+  </si>
+  <si>
+    <t>1327960-2020</t>
+  </si>
+  <si>
+    <t>1328333-2020</t>
+  </si>
+  <si>
+    <t>1330619-2020</t>
+  </si>
+  <si>
+    <t>1328318-2020</t>
+  </si>
+  <si>
+    <t>1328336-2020</t>
+  </si>
+  <si>
+    <t>1327933-2020</t>
+  </si>
+  <si>
+    <t>1330890-2020</t>
+  </si>
+  <si>
+    <t>1328389-2020</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +320,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +347,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -151,19 +355,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moneda [0] 2" xfId="2" xr:uid="{B1277948-3A6D-4501-84B9-6A30DB368FC9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 12" xfId="1" xr:uid="{1713C6E2-449B-4CBD-9F62-F05413B685AC}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -439,16 +760,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,334 +817,789 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>2019</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>496</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5">
+        <v>150</v>
+      </c>
+      <c r="J2" s="6">
+        <v>16640000</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="L2" s="7">
+        <v>1018465532</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="C3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>496</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5">
+        <v>150</v>
+      </c>
+      <c r="J3" s="6">
+        <v>37201502</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="7">
+        <v>52494869</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>496</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5">
+        <v>150</v>
+      </c>
+      <c r="J4" s="6">
+        <v>27294175</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="7">
+        <v>52281508</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>496</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5">
+        <v>150</v>
+      </c>
+      <c r="J5" s="6">
+        <v>23395010</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7">
+        <v>80233913</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>496</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5">
+        <v>150</v>
+      </c>
+      <c r="J6" s="6">
+        <v>28386800</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="7">
+        <v>52749876</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>496</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="5">
+        <v>150</v>
+      </c>
+      <c r="J7" s="6">
+        <v>25480000</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7">
+        <v>79533980</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>496</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5">
+        <v>150</v>
+      </c>
+      <c r="J8" s="6">
+        <v>21424000</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1020796965</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>496</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="5">
+        <v>150</v>
+      </c>
+      <c r="J9" s="6">
+        <v>21424000</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="7">
+        <v>7184415</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>496</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="5">
+        <v>150</v>
+      </c>
+      <c r="J10" s="6">
+        <v>16068000</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1019028617</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>496</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5">
+        <v>150</v>
+      </c>
+      <c r="J11" s="6">
+        <v>30203480</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="7">
+        <v>63300296</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>496</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="5">
+        <v>150</v>
+      </c>
+      <c r="J12" s="6">
+        <v>42890848</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="7">
+        <v>53044447</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="J2">
-        <v>2000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2">
-        <v>467645674</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2">
-        <v>34</v>
-      </c>
-      <c r="J3" s="2">
-        <v>34534</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3">
-        <v>345345</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>496</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="5">
+        <v>150</v>
+      </c>
+      <c r="J13" s="6">
+        <v>20800000</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1013637106</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>496</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="5">
+        <v>150</v>
+      </c>
+      <c r="J14" s="6">
+        <v>26850780</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="7">
+        <v>79917122</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>496</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="5">
+        <v>150</v>
+      </c>
+      <c r="J15" s="6">
+        <v>36400000</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1033689106</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>496</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="5">
+        <v>150</v>
+      </c>
+      <c r="J16" s="6">
+        <v>29458000</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1098602703</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>496</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="5">
+        <v>150</v>
+      </c>
+      <c r="J17" s="6">
+        <v>33421440</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="7">
+        <v>46377468</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>496</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="5">
+        <v>150</v>
+      </c>
+      <c r="J18" s="6">
+        <v>28762555</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="7">
+        <v>52008757</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>496</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="5">
+        <v>150</v>
+      </c>
+      <c r="J19" s="6">
+        <v>42996340</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="7">
+        <v>19364372</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>2019</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>50</v>
-      </c>
-      <c r="J4">
-        <v>2000</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>467645674</v>
-      </c>
-      <c r="M4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>2019</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <v>2000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5">
-        <v>467645674</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>2000</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6">
-        <v>467645674</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2">
-        <v>34</v>
-      </c>
-      <c r="J7" s="2">
-        <v>34534</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7">
-        <v>345345</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>2019</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-      <c r="J8">
-        <v>2000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8">
-        <v>467645674</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="2">
-        <v>34</v>
-      </c>
-      <c r="J9" s="2">
-        <v>34534</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9">
-        <v>345345</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7">
+        <v>41748148</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
